--- a/docs/ghz-predictors.xlsx
+++ b/docs/ghz-predictors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerry\repos\2022-638\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70E261-02A0-4C10-9776-2AE04362EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76196B-3E16-4197-A9E5-FC3966B318E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="311">
   <si>
     <t>name</t>
   </si>
@@ -771,12 +771,6 @@
   </si>
   <si>
     <t>roeq</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>Earnings before extraordinary items divided by lagged common shareholders’ equity</t>
   </si>
   <si>
     <t>roic</t>
@@ -1324,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1337,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2487,25 +2481,19 @@
       <c r="A83" t="s">
         <v>249</v>
       </c>
-      <c r="B83" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83" t="s">
-        <v>251</v>
-      </c>
       <c r="L83" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" t="s">
         <v>252</v>
-      </c>
-      <c r="B84" t="s">
-        <v>253</v>
-      </c>
-      <c r="C84" t="s">
-        <v>254</v>
       </c>
       <c r="L84" t="s">
         <v>6</v>
@@ -2513,13 +2501,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" t="s">
         <v>255</v>
-      </c>
-      <c r="B85" t="s">
-        <v>256</v>
-      </c>
-      <c r="C85" t="s">
-        <v>257</v>
       </c>
       <c r="L85" t="s">
         <v>81</v>
@@ -2527,13 +2515,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" t="s">
         <v>258</v>
-      </c>
-      <c r="B86" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" t="s">
-        <v>260</v>
       </c>
       <c r="L86" t="s">
         <v>6</v>
@@ -2541,13 +2529,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" t="s">
         <v>261</v>
-      </c>
-      <c r="B87" t="s">
-        <v>262</v>
-      </c>
-      <c r="C87" t="s">
-        <v>263</v>
       </c>
       <c r="L87" t="s">
         <v>6</v>
@@ -2555,13 +2543,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
         <v>264</v>
-      </c>
-      <c r="B88" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" t="s">
-        <v>266</v>
       </c>
       <c r="L88" t="s">
         <v>6</v>
@@ -2569,13 +2557,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" t="s">
         <v>267</v>
-      </c>
-      <c r="B89" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" t="s">
-        <v>269</v>
       </c>
       <c r="L89" t="s">
         <v>6</v>
@@ -2583,13 +2571,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" t="s">
         <v>270</v>
-      </c>
-      <c r="B90" t="s">
-        <v>271</v>
-      </c>
-      <c r="C90" t="s">
-        <v>272</v>
       </c>
       <c r="L90" t="s">
         <v>6</v>
@@ -2597,13 +2585,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" t="s">
         <v>273</v>
-      </c>
-      <c r="B91" t="s">
-        <v>274</v>
-      </c>
-      <c r="C91" t="s">
-        <v>275</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -2611,13 +2599,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" t="s">
         <v>276</v>
-      </c>
-      <c r="B92" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" t="s">
-        <v>278</v>
       </c>
       <c r="L92" t="s">
         <v>6</v>
@@ -2625,13 +2613,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" t="s">
         <v>279</v>
-      </c>
-      <c r="B93" t="s">
-        <v>280</v>
-      </c>
-      <c r="C93" t="s">
-        <v>281</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -2639,13 +2627,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
         <v>282</v>
-      </c>
-      <c r="B94" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" t="s">
-        <v>284</v>
       </c>
       <c r="L94" t="s">
         <v>6</v>
@@ -2653,13 +2641,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" t="s">
         <v>285</v>
-      </c>
-      <c r="B95" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" t="s">
-        <v>287</v>
       </c>
       <c r="L95" t="s">
         <v>13</v>
@@ -2667,13 +2655,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" t="s">
         <v>288</v>
-      </c>
-      <c r="B96" t="s">
-        <v>289</v>
-      </c>
-      <c r="C96" t="s">
-        <v>290</v>
       </c>
       <c r="L96" t="s">
         <v>13</v>
@@ -2681,13 +2669,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" t="s">
         <v>291</v>
-      </c>
-      <c r="B97" t="s">
-        <v>292</v>
-      </c>
-      <c r="C97" t="s">
-        <v>293</v>
       </c>
       <c r="L97" t="s">
         <v>81</v>
@@ -2695,13 +2683,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" t="s">
         <v>294</v>
-      </c>
-      <c r="B98" t="s">
-        <v>295</v>
-      </c>
-      <c r="C98" t="s">
-        <v>296</v>
       </c>
       <c r="L98" t="s">
         <v>81</v>
@@ -2709,13 +2697,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" t="s">
         <v>297</v>
-      </c>
-      <c r="B99" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" t="s">
-        <v>299</v>
       </c>
       <c r="L99" t="s">
         <v>81</v>
@@ -2723,13 +2711,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" t="s">
         <v>300</v>
-      </c>
-      <c r="B100" t="s">
-        <v>301</v>
-      </c>
-      <c r="C100" t="s">
-        <v>302</v>
       </c>
       <c r="L100" t="s">
         <v>6</v>
@@ -2737,13 +2725,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" t="s">
         <v>303</v>
-      </c>
-      <c r="B101" t="s">
-        <v>304</v>
-      </c>
-      <c r="C101" t="s">
-        <v>305</v>
       </c>
       <c r="L101" t="s">
         <v>6</v>
@@ -2751,13 +2739,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" t="s">
         <v>306</v>
-      </c>
-      <c r="B102" t="s">
-        <v>307</v>
-      </c>
-      <c r="C102" t="s">
-        <v>308</v>
       </c>
       <c r="L102" t="s">
         <v>13</v>
@@ -2765,13 +2753,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" t="s">
         <v>309</v>
-      </c>
-      <c r="B103" t="s">
-        <v>310</v>
-      </c>
-      <c r="C103" t="s">
-        <v>311</v>
       </c>
       <c r="L103" t="s">
         <v>13</v>
